--- a/management/Dawuda_GanttChart150423.xlsx
+++ b/management/Dawuda_GanttChart150423.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adian\Desktop\PLUS\i3\Gantt Chart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB226DB8-4F29-4698-B39E-7322B6E4B8AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A894CAE2-8BC5-4523-ADBF-309BEE7DD029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -974,8 +974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AD26" sqref="AD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1044,7 +1044,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="4">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="39.75" x14ac:dyDescent="0.25">
